--- a/задание1.xlsx
+++ b/задание1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>high</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Верстка кнопки "Показать объявления" с недостаточным отступом от текста внутри кнопки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/17BoPkj6C9WT1mCX7J1zbRLgYCnwMJSQ1/view?usp=drive_link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1-Dq9i_mNs5U9a_9dtukpVM4Du2xhImrG/view?usp=drive_link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1bM-4b7LpfzuvIOm-2gyquYQExXCs1sdK/view?usp=drive_link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/11Iz7i0MA1jZhMYzhPU9etFWyIam_z4Qx/view?usp=drive_link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1iXCE0knHP1zLhozxjyDrzliWHDrymtr0/view?usp=drive_link </t>
   </si>
 </sst>
 </file>
@@ -270,9 +285,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,31 +297,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,267 +631,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="65.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="80.77734375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="65.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="80.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>11</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="70.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="70.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>13</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="14" t="s">
         <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +932,13 @@
     <hyperlink ref="F15" r:id="rId10"/>
     <hyperlink ref="E3" r:id="rId11"/>
     <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="E18" r:id="rId13"/>
+    <hyperlink ref="E17" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E19" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>